--- a/Base/Teams/Saints/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Saints/2021 Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="C2">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>8</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Saints/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Saints/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="C3">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="C3">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>1</v>

--- a/Base/Teams/Saints/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Saints/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C2">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="C2">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>3</v>

--- a/Base/Teams/Saints/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Saints/2021 Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="C2">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="C2">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="D2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>9</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Saints/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Saints/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="C2">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="C2">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>4</v>

--- a/Base/Teams/Saints/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Saints/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C3">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
